--- a/深圳出差花费.xlsx
+++ b/深圳出差花费.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2715" windowWidth="14100" windowHeight="4650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <oleSize ref="A1:D9"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -31,10 +30,6 @@
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>深圳出差花费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -148,6 +143,18 @@
     <t>总计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>早（0）+ 中（0）+ 晚（12）,下大雨，早饭晚(11:00)，领导给的钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早（0）+ 中（11）+ 晚（6），早餐没了，明早买，晚上没吃饱，晚上下班买点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳出差花费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -156,7 +163,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00;[Red]&quot;¥&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,6 +202,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -268,7 +284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -287,6 +303,18 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -606,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -617,89 +645,89 @@
     <col min="1" max="1" width="13.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="17.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="55.625" customWidth="1"/>
+    <col min="4" max="4" width="73.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.875" customWidth="1"/>
     <col min="7" max="7" width="12.625" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+    </row>
+    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-    </row>
-    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+    </row>
+    <row r="3" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="14">
+        <v>41765</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-    </row>
-    <row r="3" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="10">
-        <v>41765</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>6</v>
       </c>
       <c r="C4" s="8">
         <v>40</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="15"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="19"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="8">
         <v>26</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="H5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="10">
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="14">
         <v>41766</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="8">
         <v>7</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" s="3">
         <f>SUM(C5,C7,C10,C11,C13)</f>
@@ -714,183 +742,191 @@
         <v>281.5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="15">
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="19">
         <v>41766</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="8">
         <v>30</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="14">
         <v>41767</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="8">
         <v>60</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8" s="3">
         <f>SUM(F6:G6)</f>
         <v>289.5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="11"/>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="15"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="8">
         <v>20</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="19">
         <v>41767</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="8">
         <v>32</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="14">
         <v>41768</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="8">
         <v>11</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="15">
         <v>41768</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="8">
         <v>27.5</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="14">
         <v>41769</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="8">
         <v>18</v>
       </c>
       <c r="D13" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="15"/>
+      <c r="B14" s="5" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="11"/>
-      <c r="B14" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="C14" s="8">
         <v>10</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="7"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="7"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="7"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
-    </row>
-    <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="7"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="4">
+        <v>41770</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="8">
+        <v>12</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="10">
+        <v>41771</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="8">
+        <v>21</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="10">
+        <v>41772</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="8">
+        <v>17</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="10">
+        <v>41773</v>
+      </c>
       <c r="B18" s="5"/>
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
     </row>
-    <row r="19" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="7"/>
       <c r="B19" s="5"/>
       <c r="C19" s="8"/>
       <c r="D19" s="9"/>
     </row>
-    <row r="20" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
       <c r="B20" s="5"/>
       <c r="C20" s="8"/>
       <c r="D20" s="9"/>
     </row>
-    <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="7"/>
       <c r="B21" s="5"/>
       <c r="C21" s="8"/>
       <c r="D21" s="9"/>
     </row>
-    <row r="22" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="7"/>
       <c r="B22" s="5"/>
       <c r="C22" s="8"/>
       <c r="D22" s="9"/>
-    </row>
-    <row r="23" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="7"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="9"/>
-    </row>
-    <row r="24" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="7"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="9"/>
-    </row>
-    <row r="25" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="7"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -906,30 +942,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/深圳出差花费.xlsx
+++ b/深圳出差花费.xlsx
@@ -10,94 +10,134 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <oleSize ref="A1:D9"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
   <si>
     <t>时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>用处</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出差时间：2014/05/05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>被子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>公司宿舍的被子没法用，自己买了一个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>电话卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用北京的电话卡太贵，没了一个联通的黑卡，打电话0.2元/分钟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>杯子+纸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>杯子（3元）+ 纸（4元）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>饭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>早（0）+ 中（13）+ 晚（13）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>早（5）+ 中（13）+ 晚（12）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>伞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>到深圳连续下雨，没法回宿舍，晚上冒雨买了伞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>早（0）+ 中（11）+ 晚（10）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>花露水+洗发水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>花露水（18）+ 洗发水（9.5）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>早（0）+ 中（10）+ 晚（8）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>药</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>来深圳就感冒了，越来越严重，今天只能去买药了，999感冒颗粒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃饭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>早（0）+ 中（0）+ 晚（12）,下大雨，早饭晚(11:00)，领导给的钱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳出差花费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>早（0）+ 中（11）+ 晚（6），早餐没了，明早买，晚上没吃饱，晚上下班买点(￥2.5)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>早（9.5）+ 中（11）+ 晚（9）,同事两人的早餐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>车费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>首都机场到白坊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用北京的电话卡太贵，买了一个联通的黑卡，打电话0.2元/分钟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>早（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>8</t>
+      <t>早（4）+ 中（9）+ 晚（13）</t>
     </r>
     <r>
       <rPr>
@@ -105,55 +145,85 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>早（2）+ 中（11）+ 晚（12）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>早（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>）+ 中（11）+ 晚（13）；早餐是以后几天的</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>花露水+洗发水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>花露水（18）+ 洗发水（9.5）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>早（0）+ 中（10）+ 晚（8）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>药</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>来深圳就感冒了，越来越严重，今天只能去买药了，999感冒颗粒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吃饭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>早（0）+ 中（0）+ 晚（12）,下大雨，早饭晚(11:00)，领导给的钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>早（0）+ 中（11）+ 晚（6），早餐没了，明早买，晚上没吃饱，晚上下班买点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>深圳出差花费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>早（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）+ 中（12）+ 晚（13），早餐是以后几天的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>出差时间：2014/05/05                             结束时间：2014/05/18                                  共计：14天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -163,12 +233,20 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00;[Red]&quot;¥&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -195,14 +273,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
@@ -210,6 +280,20 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -220,7 +304,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -245,93 +329,61 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="1"/>
+        <color rgb="FF00B050"/>
       </left>
       <right style="thin">
-        <color theme="1"/>
+        <color rgb="FF00B050"/>
       </right>
       <top style="thin">
-        <color theme="1"/>
+        <color rgb="FF00B050"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top/>
       <bottom style="thin">
-        <color theme="1"/>
+        <color rgb="FF00B050"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -634,9 +686,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
@@ -652,281 +704,332 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+    </row>
+    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+    </row>
+    <row r="3" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="12">
+        <v>41765</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="9">
+        <v>40</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="12"/>
+      <c r="B5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="9">
+        <v>26</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="12">
+        <v>41766</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="9">
+        <v>7</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="12">
+        <v>41766</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="9">
+        <v>30</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="12">
+        <v>41767</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="9">
+        <v>60</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="12"/>
+      <c r="B9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="9">
+        <v>20</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="12">
+        <v>41767</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="9">
+        <v>32</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="12">
+        <v>41768</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="9">
+        <v>11</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="12">
+        <v>41768</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="9">
+        <v>27.5</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="12">
+        <v>41769</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="9">
+        <v>18</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="12"/>
+      <c r="B14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="9">
+        <v>10</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="11">
+        <v>41770</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="9">
+        <v>12</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="11">
+        <v>41771</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="9">
+        <v>21</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="11">
+        <v>41772</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="9">
+        <v>19.5</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="11">
+        <v>41773</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="9">
+        <v>34</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="11">
+        <v>41774</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="9">
+        <v>26</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="11">
+        <v>41775</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="9">
+        <v>25</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="11">
+        <v>41776</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="9">
+        <v>29.5</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="11">
+        <v>41777</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="9">
+        <v>24</v>
+      </c>
+      <c r="D22" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-    </row>
-    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-    </row>
-    <row r="3" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="14">
-        <v>41765</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="8">
-        <v>40</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="19"/>
-      <c r="B5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="8">
-        <v>26</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="14">
-        <v>41766</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="8">
-        <v>7</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="3">
-        <f>SUM(C5,C7,C10,C11,C13)</f>
-        <v>117</v>
-      </c>
-      <c r="G6" s="3">
-        <f>SUM(C6,C4,C8,C9,C12,C13)</f>
-        <v>172.5</v>
-      </c>
-      <c r="H6" s="3">
-        <f>SUM(C4:C14)</f>
-        <v>281.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="19">
-        <v>41766</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="8">
-        <v>30</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="14">
-        <v>41767</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="8">
-        <v>60</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="3">
-        <f>SUM(F6:G6)</f>
-        <v>289.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="15"/>
-      <c r="B9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="8">
+    </row>
+    <row r="25" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="19">
-        <v>41767</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="8">
-        <v>32</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="14">
-        <v>41768</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="8">
-        <v>11</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="15">
-        <v>41768</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="8">
-        <v>27.5</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="14">
-        <v>41769</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="8">
-        <v>18</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="15"/>
-      <c r="B14" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="8">
-        <v>10</v>
-      </c>
-      <c r="D14" s="9" t="s">
+      <c r="C25" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="4">
-        <v>41770</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="8">
-        <v>12</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="10">
-        <v>41771</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="8">
-        <v>21</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="10">
-        <v>41772</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="8">
-        <v>17</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="10">
-        <v>41773</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="9"/>
-    </row>
-    <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="7"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
-    </row>
-    <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="7"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9"/>
-    </row>
-    <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="7"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9"/>
-    </row>
-    <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="7"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="9"/>
+    <row r="26" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="4">
+        <f>SUM(C5,C7,C10,C11,C13,C15,C16,C17,C18,C19,C20,C21)</f>
+        <v>284</v>
+      </c>
+      <c r="B26" s="4">
+        <f>SUM(C4,C6,C8,C9,C12,C14,C22)</f>
+        <v>188.5</v>
+      </c>
+      <c r="C26" s="4">
+        <f>SUM(C4:C22)</f>
+        <v>472.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="3"/>
+      <c r="B28"/>
+      <c r="C28"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -938,7 +1041,7 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A10"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
